--- a/copilot-named-entity-recognition-demo.xlsx
+++ b/copilot-named-entity-recognition-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19055CBB-BCC5-471A-B768-E0A548C6A3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E43AA1-549E-4BF3-8780-85941B9D9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{CB8E7F12-74C6-4094-8EB9-B55378FDD0CD}"/>
   </bookViews>
@@ -35,8 +35,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Had a great meeting with Susan from Microsoft on March 12.</t>
   </si>
@@ -58,21 +100,28 @@
   <si>
     <t>message_text</t>
   </si>
+  <si>
+    <t>Enjoyed dinner with Emily at The French Laundry yesterday.</t>
+  </si>
+  <si>
+    <t>Netflix released a new series filmed in Vancouver last weekend.</t>
+  </si>
+  <si>
+    <t>Planning a workshop at Stanford University in November.</t>
+  </si>
+  <si>
+    <t>Just received confirmation from Salesforce for our deal.</t>
+  </si>
+  <si>
+    <t>Heading to Barcelona for a conference next month.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -102,44 +151,19 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -155,11 +179,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{751DC3EC-DD42-4EF2-89A5-F7962DFD1EDC}" name="messages" displayName="messages" ref="A1:B6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:B6" xr:uid="{751DC3EC-DD42-4EF2-89A5-F7962DFD1EDC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{751DC3EC-DD42-4EF2-89A5-F7962DFD1EDC}" name="messages" displayName="messages" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{751DC3EC-DD42-4EF2-89A5-F7962DFD1EDC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DA5DACFC-164D-4A38-8C0F-DCA5A07F9D9C}" name="message_id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C42F1B3C-F5A7-4690-A3B9-A27DE2335677}" name="message_text" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DA5DACFC-164D-4A38-8C0F-DCA5A07F9D9C}" name="message_id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C42F1B3C-F5A7-4690-A3B9-A27DE2335677}" name="message_text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -482,15 +506,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A5AC3-F88F-44AB-88DF-CCD0AF126989}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.45703125" defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
+    <col min="3" max="3" width="18.5390625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.7">
@@ -502,43 +529,651 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A14" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B14)</f>
+        <v>=COPILOT("Identify people", messages[message_text])</v>
+      </c>
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14:B16">_xlfn._xlws.COPILOT("Identify people", messages[message_text])</f>
+        <v>Susan</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B15" t="str">
+        <v>John Doe</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.7">
+      <c r="B16" t="str">
+        <v>Emily</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="186" x14ac:dyDescent="0.7">
+      <c r="A19" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
+        <v>=COPILOT(
+  "Extract names of people, places, dates, and organizations",
+  messages[message_text],
+  "Return results as separate columns with one row per input"
+)</v>
+      </c>
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19:E28">_xlfn._xlws.COPILOT(
+  "Extract names of people, places, dates, and organizations",
+  messages[message_text],
+  "Return results as separate columns with one row per input"
+)</f>
+        <v>Susan</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Microsoft</v>
+      </c>
+      <c r="D19" t="str">
+        <v>March 12</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Microsoft</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>Paris, France</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="D21" t="str">
+        <v>July 2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Apple</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>Amazon</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B23" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Tuesday</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Meta</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B24" t="str">
+        <v>Emily</v>
+      </c>
+      <c r="C24" t="str">
+        <v>The French Laundry</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>Netflix</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>Stanford University</v>
+      </c>
+      <c r="D26" t="str">
+        <v>November</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Stanford University</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>Salesforce</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v>Salesforce</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="162.75" x14ac:dyDescent="0.7">
+      <c r="A32" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B32)</f>
+        <v>=COPILOT(
+  "Classify people, places, organizations, and dates",
+  messages[message_text],
+  "Separate into labeled columns"
+)</v>
+      </c>
+      <c r="B32" t="str" cm="1">
+        <f t="array" ref="B32:E42">_xlfn._xlws.COPILOT(
+  "Classify people, places, organizations, and dates",
+  messages[message_text],
+  "Separate into labeled columns"
+)</f>
+        <v>Person</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Organization</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Place</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Date</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B33" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Microsoft</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>March 12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>Paris, France</v>
+      </c>
+      <c r="E34" t="str">
+        <v>next summer</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v>July 2025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B37" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B38" t="str">
+        <v>Emily</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>The French Laundry</v>
+      </c>
+      <c r="E38" t="str">
+        <v>yesterday</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>Netflix</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Vancouver</v>
+      </c>
+      <c r="E39" t="str">
+        <v>last weekend</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>Stanford University</v>
+      </c>
+      <c r="E40" t="str">
+        <v>November</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v>Salesforce</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="E42" t="str">
+        <v>next month</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="116.25" x14ac:dyDescent="0.7">
+      <c r="A44" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B44)</f>
+        <v>=COPILOT(
+  "Summarize most frequently mentioned entities by category",
+  messages[message_text]
+)</v>
+      </c>
+      <c r="B44" t="str" cm="1">
+        <f t="array" ref="B44:D59">_xlfn._xlws.COPILOT(
+  "Summarize most frequently mentioned entities by category",
+  messages[message_text]
+)</f>
+        <v>Category</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Entity</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Frequency</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B45" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Microsoft</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B46" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B47" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="B48" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B49" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Netflix</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B50" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Salesforce</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B51" t="str">
+        <v>Person</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Susan</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B52" t="str">
+        <v>Person</v>
+      </c>
+      <c r="C52" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B53" t="str">
+        <v>Person</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Emily</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B54" t="str">
+        <v>Location</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Paris, France</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B55" t="str">
+        <v>Location</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Vancouver</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B56" t="str">
+        <v>Location</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Barcelona</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B57" t="str">
+        <v>Organization</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Stanford University</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B58" t="str">
+        <v>Event</v>
+      </c>
+      <c r="C58" t="str">
+        <v>product launch event</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="132.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A59" s="2" t="e">
+        <f ca="1">_xlfn.FORMULATEXT(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Event</v>
+      </c>
+      <c r="C59" t="str">
+        <v>conference</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A61" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B61)</f>
+        <v>=COPILOT(
+  "Identify relationships between people and organizations mentioned",
+  messages[message_text],
+  "Present results in two columns, labeled Person and Organization"
+)</v>
+      </c>
+      <c r="B61" t="str" cm="1">
+        <f t="array" ref="B61:C63">_xlfn._xlws.COPILOT(
+  "Identify relationships between people and organizations mentioned",
+  messages[message_text],
+  "Present results in two columns, labeled Person and Organization"
+)</f>
+        <v>Susan</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Microsoft</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B62" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Meta</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="B63" t="str">
+        <v>Emily</v>
+      </c>
+      <c r="C63" t="str">
+        <v>The French Laundry</v>
       </c>
     </row>
   </sheetData>
